--- a/config_Release/tantanle_power_cfg.xlsx
+++ b/config_Release/tantanle_power_cfg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -590,10 +590,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A2" sqref="A2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -615,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -623,7 +623,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -631,7 +631,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>5000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -639,7 +639,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>10000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -647,7 +647,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>50000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -655,7 +655,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -663,7 +663,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>500000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -671,7 +671,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -679,33 +679,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>5000000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>10000000</v>
-      </c>
+      <c r="B11"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>20000000</v>
-      </c>
+      <c r="B12"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B13"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B14"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -718,7 +702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="200" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
